--- a/src/04_Gant Chart Ver 1.1.xlsx
+++ b/src/04_Gant Chart Ver 1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MoneyManager_for_intel\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ABD301-F04B-4202-9DAD-FF04EF4C036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D3EA88-A3D1-4A07-87AE-C1FC84651C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDA64757-50FA-684F-8087-8E7F312C180F}"/>
   </bookViews>
@@ -637,58 +637,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1012,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S44" sqref="S44"/>
+      <selection pane="bottomRight" activeCell="S56" sqref="S56:U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1024,31 +1024,32 @@
     <col min="5" max="6" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5.109375" customWidth="1"/>
     <col min="9" max="11" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="33" width="5.109375" customWidth="1"/>
+    <col min="12" max="18" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="33" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:33" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
@@ -1089,48 +1090,48 @@
         <v>0</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="42" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="42" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="42" t="s">
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="42" t="s">
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="37" t="s">
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="31"/>
     </row>
     <row r="7" spans="2:33" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
@@ -1229,10 +1230,10 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="15"/>
@@ -1267,8 +1268,8 @@
       <c r="AG8" s="18"/>
     </row>
     <row r="9" spans="2:33" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
@@ -1301,8 +1302,8 @@
       <c r="AG9" s="25"/>
     </row>
     <row r="10" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="35"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="17"/>
@@ -1337,8 +1338,8 @@
       <c r="AG10" s="18"/>
     </row>
     <row r="11" spans="2:33" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="35"/>
-      <c r="C11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="19"/>
@@ -1371,8 +1372,8 @@
       <c r="AG11" s="21"/>
     </row>
     <row r="12" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="17"/>
@@ -1407,8 +1408,8 @@
       <c r="AG12" s="18"/>
     </row>
     <row r="13" spans="2:33" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="35"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -1441,8 +1442,8 @@
       <c r="AG13" s="21"/>
     </row>
     <row r="14" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="17"/>
@@ -1477,8 +1478,8 @@
       <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="2:33" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="38"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="26"/>
@@ -1511,10 +1512,10 @@
       <c r="AG15" s="21"/>
     </row>
     <row r="16" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="32" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="17"/>
@@ -1549,8 +1550,8 @@
       <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="2:33" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="35"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -1583,8 +1584,8 @@
       <c r="AG17" s="21"/>
     </row>
     <row r="18" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="42" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="13"/>
@@ -1619,8 +1620,8 @@
       <c r="AG18" s="13"/>
     </row>
     <row r="19" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1653,8 +1654,8 @@
       <c r="AG19" s="4"/>
     </row>
     <row r="20" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="4"/>
@@ -1689,8 +1690,8 @@
       <c r="AG20" s="4"/>
     </row>
     <row r="21" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1723,8 +1724,8 @@
       <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="4"/>
@@ -1759,8 +1760,8 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1793,8 +1794,8 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="41" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="4"/>
@@ -1829,8 +1830,8 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1863,8 +1864,8 @@
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="41" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="4"/>
@@ -1899,8 +1900,8 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1933,10 +1934,10 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="4"/>
@@ -1971,8 +1972,8 @@
       <c r="AG28" s="4"/>
     </row>
     <row r="29" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2005,8 +2006,8 @@
       <c r="AG29" s="4"/>
     </row>
     <row r="30" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -2041,8 +2042,8 @@
       <c r="AG30" s="4"/>
     </row>
     <row r="31" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2075,8 +2076,8 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
-      <c r="C32" s="27" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="4"/>
@@ -2111,8 +2112,8 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2145,8 +2146,8 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="35"/>
+      <c r="C34" s="41" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="4"/>
@@ -2181,8 +2182,8 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2215,10 +2216,10 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="4"/>
@@ -2253,8 +2254,8 @@
       <c r="AG36" s="4"/>
     </row>
     <row r="37" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2287,8 +2288,8 @@
       <c r="AG37" s="4"/>
     </row>
     <row r="38" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="35"/>
+      <c r="C38" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="4"/>
@@ -2323,8 +2324,8 @@
       <c r="AG38" s="4"/>
     </row>
     <row r="39" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="36"/>
-      <c r="C39" s="28"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2357,8 +2358,8 @@
       <c r="AG39" s="4"/>
     </row>
     <row r="40" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
-      <c r="C40" s="27" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="4"/>
@@ -2393,8 +2394,8 @@
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36"/>
-      <c r="C41" s="28"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2427,8 +2428,8 @@
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="36"/>
-      <c r="C42" s="27" t="s">
+      <c r="B42" s="35"/>
+      <c r="C42" s="41" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="4"/>
@@ -2463,8 +2464,8 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="36"/>
-      <c r="C43" s="28"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2476,8 +2477,8 @@
       <c r="L43" s="12"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
@@ -2497,10 +2498,10 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="4"/>
@@ -2535,8 +2536,8 @@
       <c r="AG44" s="4"/>
     </row>
     <row r="45" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="29"/>
-      <c r="C45" s="28"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2569,8 +2570,8 @@
       <c r="AG45" s="4"/>
     </row>
     <row r="46" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="29"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="4"/>
@@ -2605,8 +2606,8 @@
       <c r="AG46" s="4"/>
     </row>
     <row r="47" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2639,8 +2640,8 @@
       <c r="AG47" s="4"/>
     </row>
     <row r="48" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="27" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="4"/>
@@ -2675,8 +2676,8 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="28"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2709,8 +2710,8 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="41" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="4"/>
@@ -2745,8 +2746,8 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2779,10 +2780,10 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="4"/>
@@ -2817,8 +2818,8 @@
       <c r="AG52" s="4"/>
     </row>
     <row r="53" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36"/>
-      <c r="C53" s="28"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -2832,7 +2833,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
+      <c r="Q53" s="12"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -2851,8 +2852,8 @@
       <c r="AG53" s="4"/>
     </row>
     <row r="54" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="35"/>
+      <c r="C54" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="4"/>
@@ -2887,8 +2888,8 @@
       <c r="AG54" s="4"/>
     </row>
     <row r="55" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="36"/>
-      <c r="C55" s="28"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2900,7 +2901,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="12"/>
-      <c r="O55" s="4"/>
+      <c r="O55" s="12"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -2921,8 +2922,8 @@
       <c r="AG55" s="4"/>
     </row>
     <row r="56" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="36"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="35"/>
+      <c r="C56" s="41" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="4"/>
@@ -2940,9 +2941,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -2957,8 +2958,8 @@
       <c r="AG56" s="4"/>
     </row>
     <row r="57" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="36"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2991,8 +2992,8 @@
       <c r="AG57" s="4"/>
     </row>
     <row r="58" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="36"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="35"/>
+      <c r="C58" s="41" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="4"/>
@@ -3027,8 +3028,8 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="36"/>
-      <c r="C59" s="28"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3061,8 +3062,8 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="36"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="35"/>
+      <c r="C60" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="4"/>
@@ -3097,8 +3098,8 @@
       <c r="AG60" s="4"/>
     </row>
     <row r="61" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="33"/>
-      <c r="C61" s="28"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3131,10 +3132,10 @@
       <c r="AG61" s="4"/>
     </row>
     <row r="62" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="41" t="s">
         <v>40</v>
       </c>
       <c r="D62" s="4"/>
@@ -3169,8 +3170,8 @@
       <c r="AG62" s="4"/>
     </row>
     <row r="63" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="33"/>
-      <c r="C63" s="28"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3238,29 +3239,16 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C38:C39"/>
@@ -3270,16 +3258,29 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
